--- a/04.WBS/S1110-17-1054_에이블맥스_과제 현황 및 월간보고(8월).xlsx
+++ b/04.WBS/S1110-17-1054_에이블맥스_과제 현황 및 월간보고(8월).xlsx
@@ -238,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="270">
   <si>
     <t>대항목</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1338,49 +1338,61 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>위험분석 및 계량화
+목표 SIL 설정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 설치 및 VPN설정
+최종 환경 설정완료
+도구 교육 및 적용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 프로세스 진단
+ISO 61508을 통한 위험분석</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ISO 61508을 통한 위험분석
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버와 VPN 설치
+Redmine과 Git 설치
+Git 설치 및 교육</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시범사업 수행 계획 작성
+FMEDA기법 적용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시범사업 수행 계획서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시범사업 수행 계획</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>SW공학교육
 SP교육
 CMMi 교육</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>위험분석 및 계량화
-목표 SIL 설정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버 설치 및 VPN설정
-최종 환경 설정완료
-도구 교육 및 적용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발 프로세스 진단
-ISO 61508을 통한 위험분석</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO 61508을 통한 위험분석
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버와 VPN 설치
-Redmine과 Git 설치
-Git 설치 및 교육</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시범사업 수행 계획 작성
-FMEDA기법 적용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시범사업 수행 계획서</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시범사업 수행 계획</t>
+    <t>위험분석
+프로세스 개선안
+방법론 테일러링
+산출물 템플릿 정의
+표준 방법론 적용 및 가이드</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2543,6 +2555,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2555,34 +2600,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2592,19 +2616,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3946,13 +3958,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AJ1511"/>
+  <dimension ref="A1:AJ1511"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="X5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="10.8"/>
@@ -3971,110 +3983,110 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="2:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141" t="s">
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="139"/>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="139"/>
-      <c r="AF2" s="139"/>
-      <c r="AG2" s="139"/>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="139"/>
-      <c r="AJ2" s="139"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="143"/>
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="143"/>
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="143"/>
+      <c r="AG2" s="143"/>
+      <c r="AH2" s="143"/>
+      <c r="AI2" s="143"/>
+      <c r="AJ2" s="143"/>
     </row>
     <row r="3" spans="2:36" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="141" t="s">
+      <c r="D3" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142" t="s">
+      <c r="E3" s="144"/>
+      <c r="F3" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="142" t="s">
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="140" t="s">
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="140" t="s">
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="T3" s="140"/>
-      <c r="U3" s="140"/>
-      <c r="V3" s="140"/>
-      <c r="W3" s="140"/>
-      <c r="X3" s="140" t="s">
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="Y3" s="140"/>
-      <c r="Z3" s="140"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="140" t="s">
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="140"/>
-      <c r="AD3" s="140"/>
-      <c r="AE3" s="140"/>
-      <c r="AF3" s="140" t="s">
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="AG3" s="140"/>
-      <c r="AH3" s="140"/>
-      <c r="AI3" s="140"/>
-      <c r="AJ3" s="140"/>
+      <c r="AG3" s="134"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="134"/>
+      <c r="AJ3" s="134"/>
     </row>
     <row r="4" spans="2:36" ht="19.2">
-      <c r="B4" s="141"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
       <c r="F4" s="43" t="s">
         <v>102</v>
       </c>
@@ -4170,10 +4182,10 @@
       </c>
     </row>
     <row r="5" spans="2:36" ht="11.25" customHeight="1">
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="124" t="s">
         <v>188</v>
       </c>
       <c r="D5" s="23" t="s">
@@ -4215,8 +4227,8 @@
       <c r="AJ5" s="24"/>
     </row>
     <row r="6" spans="2:36">
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
       <c r="D6" s="23" t="s">
         <v>224</v>
       </c>
@@ -4256,8 +4268,8 @@
       <c r="AJ6" s="24"/>
     </row>
     <row r="7" spans="2:36">
-      <c r="B7" s="136"/>
-      <c r="C7" s="137"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="126"/>
       <c r="D7" s="27"/>
       <c r="E7" s="28"/>
       <c r="F7" s="24"/>
@@ -4293,8 +4305,8 @@
       <c r="AJ7" s="24"/>
     </row>
     <row r="8" spans="2:36" ht="14.4" customHeight="1">
-      <c r="B8" s="136"/>
-      <c r="C8" s="135" t="s">
+      <c r="B8" s="125"/>
+      <c r="C8" s="124" t="s">
         <v>189</v>
       </c>
       <c r="D8" s="27" t="s">
@@ -4336,8 +4348,8 @@
       <c r="AJ8" s="24"/>
     </row>
     <row r="9" spans="2:36" ht="11.25" customHeight="1">
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="23" t="s">
         <v>190</v>
       </c>
@@ -4377,8 +4389,8 @@
       <c r="AJ9" s="24"/>
     </row>
     <row r="10" spans="2:36">
-      <c r="B10" s="136"/>
-      <c r="C10" s="136"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
       <c r="D10" s="23" t="s">
         <v>191</v>
       </c>
@@ -4418,8 +4430,8 @@
       <c r="AJ10" s="24"/>
     </row>
     <row r="11" spans="2:36">
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
       <c r="F11" s="24"/>
@@ -4455,10 +4467,10 @@
       <c r="AJ11" s="24"/>
     </row>
     <row r="12" spans="2:36">
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="130" t="s">
+      <c r="C12" s="132" t="s">
         <v>192</v>
       </c>
       <c r="D12" s="28" t="s">
@@ -4500,8 +4512,8 @@
       <c r="AJ12" s="24"/>
     </row>
     <row r="13" spans="2:36">
-      <c r="B13" s="136"/>
-      <c r="C13" s="130"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="132"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="24"/>
@@ -4537,8 +4549,8 @@
       <c r="AJ13" s="24"/>
     </row>
     <row r="14" spans="2:36">
-      <c r="B14" s="136"/>
-      <c r="C14" s="130"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="24"/>
@@ -4574,7 +4586,7 @@
       <c r="AJ14" s="24"/>
     </row>
     <row r="15" spans="2:36" ht="10.8" customHeight="1">
-      <c r="B15" s="136"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="119" t="s">
         <v>193</v>
       </c>
@@ -4617,7 +4629,7 @@
       <c r="AJ15" s="24"/>
     </row>
     <row r="16" spans="2:36">
-      <c r="B16" s="136"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="121"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -4653,8 +4665,8 @@
       <c r="AI16" s="24"/>
       <c r="AJ16" s="24"/>
     </row>
-    <row r="17" spans="2:36">
-      <c r="B17" s="136"/>
+    <row r="17" spans="1:36">
+      <c r="B17" s="125"/>
       <c r="C17" s="119" t="s">
         <v>161</v>
       </c>
@@ -4696,8 +4708,8 @@
       <c r="AI17" s="24"/>
       <c r="AJ17" s="24"/>
     </row>
-    <row r="18" spans="2:36">
-      <c r="B18" s="136"/>
+    <row r="18" spans="1:36">
+      <c r="B18" s="125"/>
       <c r="C18" s="120"/>
       <c r="D18" s="28" t="s">
         <v>257</v>
@@ -4737,8 +4749,8 @@
       <c r="AI18" s="24"/>
       <c r="AJ18" s="24"/>
     </row>
-    <row r="19" spans="2:36">
-      <c r="B19" s="136"/>
+    <row r="19" spans="1:36">
+      <c r="B19" s="125"/>
       <c r="C19" s="120"/>
       <c r="D19" s="28" t="s">
         <v>195</v>
@@ -4778,8 +4790,8 @@
       <c r="AI19" s="24"/>
       <c r="AJ19" s="24"/>
     </row>
-    <row r="20" spans="2:36">
-      <c r="B20" s="137"/>
+    <row r="20" spans="1:36">
+      <c r="B20" s="126"/>
       <c r="C20" s="121"/>
       <c r="D20" s="28" t="s">
         <v>196</v>
@@ -4819,11 +4831,11 @@
       <c r="AI20" s="24"/>
       <c r="AJ20" s="24"/>
     </row>
-    <row r="21" spans="2:36">
-      <c r="B21" s="135" t="s">
+    <row r="21" spans="1:36">
+      <c r="B21" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="130" t="s">
+      <c r="C21" s="132" t="s">
         <v>197</v>
       </c>
       <c r="D21" s="28" t="s">
@@ -4846,10 +4858,10 @@
       <c r="Q21" s="24"/>
       <c r="R21" s="24"/>
       <c r="S21" s="24"/>
-      <c r="T21" s="30"/>
+      <c r="T21" s="26"/>
       <c r="U21" s="24"/>
       <c r="V21" s="24"/>
-      <c r="W21" s="30"/>
+      <c r="W21" s="26"/>
       <c r="X21" s="24"/>
       <c r="Y21" s="24"/>
       <c r="Z21" s="26"/>
@@ -4864,9 +4876,9 @@
       <c r="AI21" s="24"/>
       <c r="AJ21" s="24"/>
     </row>
-    <row r="22" spans="2:36">
-      <c r="B22" s="136"/>
-      <c r="C22" s="130"/>
+    <row r="22" spans="1:36">
+      <c r="B22" s="125"/>
+      <c r="C22" s="132"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
       <c r="F22" s="24"/>
@@ -4901,9 +4913,9 @@
       <c r="AI22" s="24"/>
       <c r="AJ22" s="24"/>
     </row>
-    <row r="23" spans="2:36">
-      <c r="B23" s="136"/>
-      <c r="C23" s="130"/>
+    <row r="23" spans="1:36">
+      <c r="B23" s="125"/>
+      <c r="C23" s="132"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="24"/>
@@ -4938,9 +4950,9 @@
       <c r="AI23" s="24"/>
       <c r="AJ23" s="24"/>
     </row>
-    <row r="24" spans="2:36">
-      <c r="B24" s="136"/>
-      <c r="C24" s="130" t="s">
+    <row r="24" spans="1:36">
+      <c r="B24" s="125"/>
+      <c r="C24" s="132" t="s">
         <v>198</v>
       </c>
       <c r="D24" s="28" t="s">
@@ -4981,9 +4993,9 @@
       <c r="AI24" s="24"/>
       <c r="AJ24" s="24"/>
     </row>
-    <row r="25" spans="2:36">
-      <c r="B25" s="136"/>
-      <c r="C25" s="130"/>
+    <row r="25" spans="1:36">
+      <c r="B25" s="125"/>
+      <c r="C25" s="132"/>
       <c r="D25" s="28" t="s">
         <v>222</v>
       </c>
@@ -5022,9 +5034,9 @@
       <c r="AI25" s="24"/>
       <c r="AJ25" s="24"/>
     </row>
-    <row r="26" spans="2:36">
-      <c r="B26" s="137"/>
-      <c r="C26" s="130"/>
+    <row r="26" spans="1:36">
+      <c r="B26" s="126"/>
+      <c r="C26" s="132"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="F26" s="24"/>
@@ -5059,11 +5071,14 @@
       <c r="AI26" s="24"/>
       <c r="AJ26" s="24"/>
     </row>
-    <row r="27" spans="2:36">
-      <c r="B27" s="135" t="s">
+    <row r="27" spans="1:36">
+      <c r="A27" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="131" t="s">
+      <c r="C27" s="133" t="s">
         <v>199</v>
       </c>
       <c r="D27" s="28" t="s">
@@ -5102,9 +5117,9 @@
       <c r="AI27" s="24"/>
       <c r="AJ27" s="24"/>
     </row>
-    <row r="28" spans="2:36">
-      <c r="B28" s="136"/>
-      <c r="C28" s="131"/>
+    <row r="28" spans="1:36">
+      <c r="B28" s="125"/>
+      <c r="C28" s="133"/>
       <c r="D28" s="28" t="s">
         <v>217</v>
       </c>
@@ -5141,9 +5156,9 @@
       <c r="AI28" s="24"/>
       <c r="AJ28" s="24"/>
     </row>
-    <row r="29" spans="2:36">
-      <c r="B29" s="136"/>
-      <c r="C29" s="131"/>
+    <row r="29" spans="1:36">
+      <c r="B29" s="125"/>
+      <c r="C29" s="133"/>
       <c r="D29" s="28" t="s">
         <v>218</v>
       </c>
@@ -5182,9 +5197,9 @@
       <c r="AI29" s="24"/>
       <c r="AJ29" s="24"/>
     </row>
-    <row r="30" spans="2:36">
-      <c r="B30" s="136"/>
-      <c r="C30" s="131" t="s">
+    <row r="30" spans="1:36">
+      <c r="B30" s="125"/>
+      <c r="C30" s="133" t="s">
         <v>200</v>
       </c>
       <c r="D30" s="28" t="s">
@@ -5225,9 +5240,9 @@
       <c r="AI30" s="24"/>
       <c r="AJ30" s="24"/>
     </row>
-    <row r="31" spans="2:36">
-      <c r="B31" s="136"/>
-      <c r="C31" s="131"/>
+    <row r="31" spans="1:36">
+      <c r="B31" s="125"/>
+      <c r="C31" s="133"/>
       <c r="D31" s="28" t="s">
         <v>220</v>
       </c>
@@ -5266,9 +5281,9 @@
       <c r="AI31" s="24"/>
       <c r="AJ31" s="24"/>
     </row>
-    <row r="32" spans="2:36">
-      <c r="B32" s="137"/>
-      <c r="C32" s="131"/>
+    <row r="32" spans="1:36">
+      <c r="B32" s="126"/>
+      <c r="C32" s="133"/>
       <c r="D32" s="28" t="s">
         <v>221</v>
       </c>
@@ -5306,10 +5321,10 @@
       <c r="AJ32" s="24"/>
     </row>
     <row r="33" spans="2:36">
-      <c r="B33" s="132" t="s">
+      <c r="B33" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="130" t="s">
+      <c r="C33" s="132" t="s">
         <v>201</v>
       </c>
       <c r="D33" s="28" t="s">
@@ -5351,8 +5366,8 @@
       <c r="AJ33" s="24"/>
     </row>
     <row r="34" spans="2:36">
-      <c r="B34" s="133"/>
-      <c r="C34" s="130"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="132"/>
       <c r="D34" s="28" t="s">
         <v>208</v>
       </c>
@@ -5390,8 +5405,8 @@
       <c r="AJ34" s="24"/>
     </row>
     <row r="35" spans="2:36">
-      <c r="B35" s="133"/>
-      <c r="C35" s="130"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="132"/>
       <c r="D35" s="28" t="s">
         <v>168</v>
       </c>
@@ -5429,7 +5444,7 @@
       <c r="AJ35" s="24"/>
     </row>
     <row r="36" spans="2:36">
-      <c r="B36" s="133"/>
+      <c r="B36" s="130"/>
       <c r="C36" s="119" t="s">
         <v>202</v>
       </c>
@@ -5470,7 +5485,7 @@
       <c r="AJ36" s="24"/>
     </row>
     <row r="37" spans="2:36">
-      <c r="B37" s="133"/>
+      <c r="B37" s="130"/>
       <c r="C37" s="120"/>
       <c r="D37" s="28" t="s">
         <v>210</v>
@@ -5509,7 +5524,7 @@
       <c r="AJ37" s="24"/>
     </row>
     <row r="38" spans="2:36">
-      <c r="B38" s="133"/>
+      <c r="B38" s="130"/>
       <c r="C38" s="120"/>
       <c r="D38" s="28" t="s">
         <v>211</v>
@@ -5548,7 +5563,7 @@
       <c r="AJ38" s="24"/>
     </row>
     <row r="39" spans="2:36">
-      <c r="B39" s="133"/>
+      <c r="B39" s="130"/>
       <c r="C39" s="121"/>
       <c r="D39" s="28" t="s">
         <v>239</v>
@@ -5589,7 +5604,7 @@
       <c r="AJ39" s="24"/>
     </row>
     <row r="40" spans="2:36">
-      <c r="B40" s="133"/>
+      <c r="B40" s="130"/>
       <c r="C40" s="119" t="s">
         <v>212</v>
       </c>
@@ -5630,7 +5645,7 @@
       <c r="AJ40" s="24"/>
     </row>
     <row r="41" spans="2:36">
-      <c r="B41" s="133"/>
+      <c r="B41" s="130"/>
       <c r="C41" s="120"/>
       <c r="D41" s="28" t="s">
         <v>214</v>
@@ -5669,7 +5684,7 @@
       <c r="AJ41" s="24"/>
     </row>
     <row r="42" spans="2:36">
-      <c r="B42" s="134"/>
+      <c r="B42" s="131"/>
       <c r="C42" s="121"/>
       <c r="D42" s="28" t="s">
         <v>215</v>
@@ -5710,10 +5725,10 @@
       <c r="AJ42" s="24"/>
     </row>
     <row r="43" spans="2:36">
-      <c r="B43" s="129" t="s">
+      <c r="B43" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="130" t="s">
+      <c r="C43" s="132" t="s">
         <v>203</v>
       </c>
       <c r="D43" s="28" t="s">
@@ -5753,8 +5768,8 @@
       <c r="AJ43" s="24"/>
     </row>
     <row r="44" spans="2:36">
-      <c r="B44" s="129"/>
-      <c r="C44" s="130"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="132"/>
       <c r="D44" s="28" t="s">
         <v>205</v>
       </c>
@@ -5794,8 +5809,8 @@
       <c r="AJ44" s="26"/>
     </row>
     <row r="45" spans="2:36">
-      <c r="B45" s="129"/>
-      <c r="C45" s="130"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="132"/>
       <c r="D45" s="28" t="s">
         <v>206</v>
       </c>
@@ -5833,11 +5848,11 @@
       <c r="AJ45" s="26"/>
     </row>
     <row r="46" spans="2:36" ht="39" customHeight="1">
-      <c r="B46" s="128" t="s">
+      <c r="B46" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="128"/>
-      <c r="D46" s="128"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="127"/>
       <c r="E46" s="25"/>
       <c r="F46" s="44"/>
       <c r="G46" s="45"/>
@@ -5855,31 +5870,31 @@
       </c>
       <c r="P46" s="123"/>
       <c r="Q46" s="123"/>
-      <c r="R46" s="124" t="s">
+      <c r="R46" s="135" t="s">
         <v>244</v>
       </c>
-      <c r="S46" s="124"/>
-      <c r="T46" s="124"/>
-      <c r="U46" s="124"/>
-      <c r="V46" s="124"/>
-      <c r="W46" s="124"/>
-      <c r="X46" s="125"/>
-      <c r="Y46" s="125"/>
-      <c r="Z46" s="125"/>
-      <c r="AA46" s="125"/>
+      <c r="S46" s="135"/>
+      <c r="T46" s="135"/>
+      <c r="U46" s="135"/>
+      <c r="V46" s="135"/>
+      <c r="W46" s="135"/>
+      <c r="X46" s="136"/>
+      <c r="Y46" s="136"/>
+      <c r="Z46" s="136"/>
+      <c r="AA46" s="136"/>
       <c r="AB46" s="122" t="s">
         <v>70</v>
       </c>
       <c r="AC46" s="123"/>
       <c r="AD46" s="123"/>
       <c r="AE46" s="123"/>
-      <c r="AF46" s="126" t="s">
+      <c r="AF46" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="AG46" s="127"/>
-      <c r="AH46" s="127"/>
-      <c r="AI46" s="127"/>
-      <c r="AJ46" s="127"/>
+      <c r="AG46" s="138"/>
+      <c r="AH46" s="138"/>
+      <c r="AI46" s="138"/>
+      <c r="AJ46" s="138"/>
     </row>
     <row r="47" spans="2:36" ht="18" customHeight="1"/>
     <row r="48" spans="2:36" ht="18" customHeight="1">
@@ -7358,7 +7373,6 @@
     <row r="1511" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C8:C11"/>
     <mergeCell ref="F2:AJ2"/>
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="C5:C7"/>
@@ -7372,8 +7386,23 @@
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="J3:N3"/>
     <mergeCell ref="B5:B11"/>
+    <mergeCell ref="C36:C39"/>
     <mergeCell ref="AF3:AJ3"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="R46:AA46"/>
+    <mergeCell ref="AB46:AE46"/>
+    <mergeCell ref="AF46:AJ46"/>
     <mergeCell ref="F3:I3"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="J46:N46"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B27:B32"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C27:C29"/>
@@ -7382,20 +7411,6 @@
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="O46:Q46"/>
-    <mergeCell ref="R46:AA46"/>
-    <mergeCell ref="AB46:AE46"/>
-    <mergeCell ref="AF46:AJ46"/>
-    <mergeCell ref="J46:N46"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B33:B42"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="B12:B20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7416,8 +7431,8 @@
   <dimension ref="B2:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6"/>
@@ -7680,7 +7695,7 @@
         <v>250</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -7719,7 +7734,7 @@
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -7768,20 +7783,20 @@
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="2:10" ht="62.4">
+    <row r="23" spans="2:10" ht="78">
       <c r="B23" s="146"/>
       <c r="C23" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14" t="s">
         <v>255</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -7794,7 +7809,7 @@
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -7808,14 +7823,14 @@
         <v>52</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14" t="s">
         <v>256</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -7827,16 +7842,16 @@
         <v>65</v>
       </c>
       <c r="D26" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="F26" s="14" t="s">
+      <c r="G26" s="14" t="s">
         <v>266</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>267</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
